--- a/biology/Botanique/Amaryllideae/Amaryllideae.xlsx
+++ b/biology/Botanique/Amaryllideae/Amaryllideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Amaryllideae sont une tribu de la sous-famille   des Amaryllidoideae ( famille des Amaryllidaceae ). Ce sont des plantes herbacées, vivaces à fleurs  monocotylédones  avec une répartition principalement sud-africaine, à l'exception du genre pantropical Crinum . Ils sont généralement considérés comme constitués de quatre sous-tribus. En plus de Crinum, d'autres genres incluent Amaryllis, Boophone et Strumaria . [1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amaryllideae sont une tribu de la sous-famille   des Amaryllidoideae ( famille des Amaryllidaceae ). Ce sont des plantes herbacées, vivaces à fleurs  monocotylédones  avec une répartition principalement sud-africaine, à l'exception du genre pantropical Crinum . Ils sont généralement considérés comme constitués de quatre sous-tribus. En plus de Crinum, d'autres genres incluent Amaryllis, Boophone et Strumaria . 
 </t>
         </is>
       </c>
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phylogénie
-Le placement des Amaryllideae au sein de la sous-famille Amaryllidoideae est illustré dans le cladogramme suivant :
-Subdivision
-Il existe quatre sous-tribus :
-Amaryllidinae Pax [2]
-Boophoninae  D.Müll. -Doblies &amp; U.Müll. -Dobly [3]
-Crininae Baker [4]
-Strumariinae Traub ex D.Müll. -Doblies &amp; U.Müll. -Dobly [5]
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le placement des Amaryllideae au sein de la sous-famille Amaryllidoideae est illustré dans le cladogramme suivant :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amaryllideae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amaryllideae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Subdivision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe quatre sous-tribus :
+Amaryllidinae Pax 
+Boophoninae  D.Müll. -Doblies &amp; U.Müll. -Dobly 
+Crininae Baker 
+Strumariinae Traub ex D.Müll. -Doblies &amp; U.Müll. -Dobly 
 Ceux-ci sont liés phylogénétiquement comme suit :
 Amaryllidinae : Type . Sous-tribu monogénérique du genre  Amaryllis.
 Boophoninae : Sous-tribu monogénérique du genre Boophone.
